--- a/WGRDBESstockCoord/format/CEF/CEF_v17.xlsx
+++ b/WGRDBESstockCoord/format/CEF/CEF_v17.xlsx
@@ -5,20 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/RDBES_gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/RDBES_gits/RDBESstockCoord/WGRDBESstockCoord/format/CEF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{F9E27740-2F80-44E2-A6E8-D6A76EECD151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4257D3-09B8-469A-B688-E40C85B80ECF}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{F9E27740-2F80-44E2-A6E8-D6A76EECD151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803F643F-22F1-4696-84B6-9EA409EA7699}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
   <sheets>
     <sheet name="CEF" sheetId="1" r:id="rId1"/>
     <sheet name="Catch" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
-    <sheet name="Distribution" sheetId="10" r:id="rId4"/>
-    <sheet name="Spatial landings details" sheetId="8" r:id="rId5"/>
-    <sheet name="Effort" sheetId="9" r:id="rId6"/>
+    <sheet name="Distribution" sheetId="10" r:id="rId3"/>
+    <sheet name="Spatial landings details" sheetId="8" r:id="rId4"/>
+    <sheet name="Effort" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="201">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -363,84 +362,6 @@
   </si>
   <si>
     <t>Total number of trips. numSamp in InterCatch will be translated to this one</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Definition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Estimation domains. These can differ from SC domain of interest, the minimum level.  SC's define the minimum level. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Function: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Link to Estimated Catches. Link within census catch. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Naming convention: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">season_area/FMU_fleet_additional. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Rules: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>key mandatory if there is an estimate, empty if not =&gt; easy filtering part that need raising from part used to estimate the strata discard ratio.</t>
-    </r>
   </si>
   <si>
     <t>seasonType</t>
@@ -1502,12 +1423,112 @@
   <si>
     <t>Code list missing</t>
   </si>
+  <si>
+    <t>Code list needed Location, LandingEvent, FishingTrip, FishingOperation, TemporalEvent, Vessel, OnshoreEvent, Mixed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Definition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Discard raising domain. These can differ from SC domain of interest, the minimum level.  SC's define the minimum level. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Function: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Link to Estimated Catches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Link within census catch. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Naming convention: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">season_area/FMU_fleet_additional. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rules: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key mandatory if there is an estimate, empty if not =&gt; easy filtering part that need raising from part used to estimate the strata discard ratio.
+The link between landings and discard</t>
+    </r>
+  </si>
+  <si>
+    <t>Year, Quarter and Month are accepted codes. 
+For xxx these should follow waht is requested in the data call. Estimates should follow the level of estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If quarter in the </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1626,12 +1647,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -1639,7 +1654,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,12 +1670,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1693,7 +1702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1790,47 +1799,14 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2221,7 +2197,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
@@ -2335,7 +2311,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -2362,7 +2338,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -2389,7 +2365,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -2398,7 +2374,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -2410,13 +2386,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -2425,19 +2401,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -2452,19 +2428,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -2479,25 +2455,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
         <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -2524,7 +2500,7 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -2535,10 +2511,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -2547,7 +2523,7 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -2555,13 +2531,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -2578,7 +2554,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -2607,13 +2583,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -2624,16 +2600,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -2644,13 +2620,13 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -2658,10 +2634,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -2681,13 +2657,13 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -2695,7 +2671,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -2729,7 +2705,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -2745,10 +2721,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" s="18"/>
     </row>
@@ -2757,7 +2733,7 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="18"/>
     </row>
@@ -2766,7 +2742,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="18"/>
     </row>
@@ -2870,8 +2846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -2898,10 +2874,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>17</v>
@@ -2916,26 +2892,26 @@
         <v>20</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="36"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>43</v>
@@ -2944,19 +2920,19 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="L2" s="37"/>
+      <c r="K2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>33</v>
@@ -2974,15 +2950,15 @@
         <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>33</v>
@@ -3000,15 +2976,15 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>33</v>
@@ -3026,17 +3002,17 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46" t="s">
-        <v>189</v>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>33</v>
@@ -3054,13 +3030,13 @@
         <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>33</v>
@@ -3078,18 +3054,18 @@
         <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>33</v>
@@ -3107,17 +3083,17 @@
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3125,7 +3101,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>43</v>
@@ -3137,10 +3113,13 @@
         <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
@@ -3148,7 +3127,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>28</v>
@@ -3159,90 +3138,84 @@
       <c r="F10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="40" t="s">
+      <c r="G10" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="44" t="s">
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="I11" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="L11" s="43"/>
-    </row>
-    <row r="12" spans="1:12" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="40" t="s">
+    </row>
+    <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="44" t="s">
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
@@ -3255,27 +3228,27 @@
         <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>43</v>
@@ -3287,16 +3260,16 @@
         <v>23</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3304,7 +3277,7 @@
         <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>43</v>
@@ -3315,16 +3288,16 @@
       <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="47" t="s">
-        <v>137</v>
+      <c r="G16" s="38" t="s">
+        <v>136</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:12" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -3332,16 +3305,16 @@
         <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>75</v>
@@ -3355,7 +3328,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>60</v>
@@ -3364,12 +3337,12 @@
         <v>58</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>50</v>
@@ -3378,7 +3351,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>60</v>
@@ -3392,16 +3365,25 @@
         <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.2">
@@ -3421,17 +3403,17 @@
         <v>23</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>43</v>
@@ -3442,11 +3424,11 @@
       <c r="F22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3460,7 +3442,7 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>80</v>
@@ -3471,7 +3453,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>28</v>
@@ -3480,33 +3462,33 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G25" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3517,16 +3499,16 @@
         <v>28</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -3537,16 +3519,16 @@
         <v>28</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="K27" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3568,10 +3550,10 @@
     </row>
     <row r="32" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="24"/>
     </row>
@@ -3583,22 +3565,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC151CB-CABA-4154-8BFA-D26435CA4B38}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D25"/>
     </sheetView>
   </sheetViews>
@@ -3625,7 +3595,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
@@ -3808,7 +3778,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>49</v>
@@ -3838,7 +3808,7 @@
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -3848,20 +3818,20 @@
         <v>23</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -3871,20 +3841,20 @@
         <v>23</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>28</v>
@@ -3896,7 +3866,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I13" s="7"/>
     </row>
@@ -3915,14 +3885,14 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3930,18 +3900,18 @@
         <v>23</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3964,18 +3934,18 @@
         <v>23</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3983,7 +3953,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
@@ -3992,7 +3962,7 @@
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>74</v>
@@ -4004,18 +3974,18 @@
         <v>23</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -4028,7 +3998,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>74</v>
@@ -4040,14 +4010,14 @@
       <c r="F21" s="7"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
@@ -4057,7 +4027,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
@@ -4119,7 +4089,7 @@
         <v>76</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4131,7 +4101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -4188,7 +4158,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
@@ -4373,7 +4343,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>49</v>
@@ -4388,7 +4358,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -4400,7 +4370,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -4411,7 +4381,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>28</v>
@@ -4423,7 +4393,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
@@ -4432,7 +4402,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -4444,11 +4414,11 @@
         <v>23</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -4457,7 +4427,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -4469,7 +4439,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
@@ -4519,7 +4489,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>71</v>
@@ -4588,7 +4558,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -4600,11 +4570,11 @@
         <v>23</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -4613,7 +4583,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -4629,7 +4599,7 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -4638,10 +4608,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="17"/>
@@ -4660,7 +4630,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
@@ -4673,13 +4643,13 @@
         <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4700,7 +4670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -4727,7 +4697,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -4847,7 +4817,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -4859,7 +4829,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -4869,7 +4839,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -4881,7 +4851,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -4891,7 +4861,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -4903,10 +4873,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="7"/>
     </row>
@@ -4915,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -4927,7 +4897,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -4991,13 +4961,13 @@
         <v>33</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I12" s="7"/>
     </row>
@@ -5006,7 +4976,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -5022,7 +4992,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="7"/>
     </row>
@@ -5031,10 +5001,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="17"/>
@@ -5057,13 +5027,13 @@
         <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -5099,6 +5069,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5275,18 +5257,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
   <ds:schemaRefs>
@@ -5296,6 +5266,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E1917-8142-40B1-B65D-035A525D2E69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5312,14 +5292,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WGRDBESstockCoord/format/CEF/CEF_v17.xlsx
+++ b/WGRDBESstockCoord/format/CEF/CEF_v17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/RDBES_gits/RDBESstockCoord/WGRDBESstockCoord/format/CEF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="13_ncr:1_{F9E27740-2F80-44E2-A6E8-D6A76EECD151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803F643F-22F1-4696-84B6-9EA409EA7699}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{F9E27740-2F80-44E2-A6E8-D6A76EECD151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0183FF05-709B-4879-8464-D0F058BE48A5}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{C3BA46FC-17EC-4006-828F-4F15940585FB}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="207">
   <si>
     <t>vesselFlagCountry</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>IC_FleetName</t>
-  </si>
-  <si>
-    <t>Same as above</t>
   </si>
   <si>
     <t>More or less same as above season_area/FMU_fleet_additional</t>
@@ -486,9 +483,6 @@
     <t>Code list needed Location, LandingEvent, FishingTrip, FishingOperation, TemporalEvent, Vessel, OnshoreEvent</t>
   </si>
   <si>
-    <t>Code names are from the CS data model, where tables in the upper hierachy represent a PSU</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1125,53 +1119,6 @@
     <t>Code list needed WeightLive + Number</t>
   </si>
   <si>
-    <t>DataBasis</t>
-  </si>
-  <si>
-    <t>WGValue - the final tonnage | number going into the assessment. These can be estimated or coming from official records. It is importaint that the SC can pick this one and know that this is the correct and final value. For weight it would be similar to CATON in IC.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">WGValue, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Official, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estimated, Measured, NotApplicable, Unknown</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">DaysAtSea, kWDaysAtSea, FishingDays, VesselFishingHour, kWFishingDays, numberOfUniqueVessels, numberOfDominantTrips, kWFishingHours, NumberOfHaulsOrSets, VesselKgPrHour </t>
   </si>
   <si>
@@ -1200,113 +1147,6 @@
   </si>
   <si>
     <t>Currently only ICESArea can be used</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Code list needed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">WGFleet, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WGFleetList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Metier6, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Metier6List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Metier5, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Metier5List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Metier4, </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Metier4List</t>
-    </r>
   </si>
   <si>
     <t>recordType</t>
@@ -1412,123 +1252,235 @@
     <t>Code list for WGFleet</t>
   </si>
   <si>
-    <t>WGFleet codes are defined by the AWG groups. Wgfleet can be a Metier5, Metier4 or a groupin accepted by the WG</t>
-  </si>
-  <si>
-    <t>MUNIT (t, kg, N, NE3)</t>
-  </si>
-  <si>
     <t>N, NE3?</t>
   </si>
   <si>
     <t>Code list missing</t>
-  </si>
-  <si>
-    <t>Code list needed Location, LandingEvent, FishingTrip, FishingOperation, TemporalEvent, Vessel, OnshoreEvent, Mixed</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Definition:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Discard raising domain. These can differ from SC domain of interest, the minimum level.  SC's define the minimum level. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Function: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Link to Estimated Catches</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Link within census catch. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Naming convention: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">season_area/FMU_fleet_additional. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Rules: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>key mandatory if there is an estimate, empty if not =&gt; easy filtering part that need raising from part used to estimate the strata discard ratio.
-The link between landings and discard</t>
-    </r>
   </si>
   <si>
     <t>Year, Quarter and Month are accepted codes. 
 For xxx these should follow waht is requested in the data call. Estimates should follow the level of estimated</t>
   </si>
   <si>
-    <t xml:space="preserve">If quarter in the </t>
+    <t>Same defintion as in RDBES CL. Métier level 6 codes 
+For all census data, sourceType equal Official, metier6 is mandatory. Landings, both official and WGvalue, are always assumed to be census. For BMS, Dis and DisBMS, where sourceType equal WGvalue, metier6 is optional.</t>
+  </si>
+  <si>
+    <t>DataBasis
+https://vocab.ices.dk/?ref=1646</t>
+  </si>
+  <si>
+    <t>WGvalue is missing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUNIT </t>
+  </si>
+  <si>
+    <t>the total value of the variableType and variableUnit given above</t>
+  </si>
+  <si>
+    <t>SamplingUnit
+https://vocab.ices.dk/?codetypeguid=eb463e61-2e8c-4cff-93a0-9bb4170335c6</t>
+  </si>
+  <si>
+    <t>All codes are missing</t>
+  </si>
+  <si>
+    <t>For all census data, sourceType equal Official, only a single value is accepted. Landings, both official and WGvalue, are always assumed to be census. For BMS, Dis and DisBMS, where sourceType equal WGvalue, a semicolon separated list is accepted e.g., “27.3.a.20; 27.3.a.21”</t>
+  </si>
+  <si>
+    <t>If seasonType is Month, then use 1-12. if seasonType is Quarter, then use 1-4. If seasonType is Year, then use e.g. 2024
+For all census data, sourceType equal Official, only a single value is accepted. Landings, both official and WGvalue, are always assumed to be census. For BMS, Dis and DisBMS, where sourceType equal WGvalue, a semicolon separated list is accepted e.g., “1; 2”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+For all census data, sourceType equal Official, only a single value is accepted. Landings, both official and WGvalue, are always assumed to be census. For BMS, Dis and DisBMS, where sourceType equal WGvalue, a semicolon separated list is accepted e.g., “GNS; GTR”</t>
+  </si>
+  <si>
+    <t>The primary sampling unit (PSU).
+Location, LandingEvent, FishingTrip, FishingOperation, TemporalEvent, Vessel, OnshoreEvent and Mixed are accepted codes.
+If 
+If samples from sampling schemes with different primary sampling units are used for the estimation, e.g., samples from an at-sea program with fishing trip as the PSU and an on-shore program with landing event as the PSU, then use Mixed.</t>
+  </si>
+  <si>
+    <t>AreaNonFAO
+https://vocab.ices.dk/?codetypeguid=d94d4dca-c8d1-40ea-8b82-ff93ae3a7dcf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WGFleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Metier6, Metier5, Metier4  are accepted codes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WGFleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> codes are defined by the AWG groups. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WGFleet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be a Metier5, Metier4 or a groupin accepted by the WG</t>
+    </r>
+  </si>
+  <si>
+    <t>WGvalue and Official are accepted codes.
+WGValue - the final tonnage or number going into the assessment. These can be estimated or coming from official records. It is importaint that the SC can pick this one and know that this is the correct and final value. For weight it would be similar to CATON in InterCatch.
+All combination of catchCategory and sourceType are accepted, except DisBMS can not be Ofiifcial</t>
+  </si>
+  <si>
+    <t>if variableType equal WeightLive, then use t or kg. If varibaelType is Number then use  N and NE3.</t>
+  </si>
+  <si>
+    <t>domainCatchBMS is the discard raising domain and mandatory when reporting a WGValue for BMS or DisBMS. If reporting census data as a WGValue, then domainCatchBMS should still be filled to enable the stock coordinator to calculate a ratio to be used for filling unsampled strata if needed. If a domainCatchBMS exist, at least one row with a WGvalue for Lan should exist with the same domainCatchBMS.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Definition:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Discard raising domain. These can differ from SC domain of interest, the minimum level.  SC's define the minimum level. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Function: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Link to Estimated Catches. Link within census catch. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Naming convention: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">season_area/FMU_fleet_additional. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Rules: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">key mandatory if there is an estimate, empty if not =&gt; easy filtering part that need raising from part used to estimate the strata discard ratio.
+The link between landings and discard .... write
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+domainCatchDis is the discard raising domain and mandatory when reporting a WGValue for Dis or DisBMS. If reporting census data as a WGValue, then domainCatchDis should still be filled to enable the stock coordinator to calculate a ratio to be used for filling unsampled strata if needed. If a domainCatchDis exist, at least one row with a WGvalue for Lan should exist with the same domainCatchDis.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1637,14 +1589,6 @@
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -1802,7 +1746,7 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2197,10 +2141,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>38</v>
@@ -2311,7 +2255,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -2338,7 +2282,7 @@
         <v>12</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -2365,7 +2309,7 @@
         <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -2374,7 +2318,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -2386,13 +2330,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -2401,19 +2345,19 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -2428,19 +2372,19 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -2455,25 +2399,25 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
         <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>91</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -2488,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -2500,7 +2444,7 @@
         <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -2511,10 +2455,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -2523,7 +2467,7 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -2531,13 +2475,13 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -2554,7 +2498,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -2583,13 +2527,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -2600,16 +2544,16 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -2620,13 +2564,13 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
         <v>12</v>
@@ -2634,10 +2578,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
@@ -2657,13 +2601,13 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -2671,7 +2615,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -2697,7 +2641,7 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -2705,7 +2649,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -2721,10 +2665,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E28" s="18"/>
     </row>
@@ -2733,16 +2677,16 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E30" s="18"/>
     </row>
@@ -2846,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
@@ -2874,10 +2818,10 @@
   <sheetData>
     <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>17</v>
@@ -2892,17 +2836,17 @@
         <v>20</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="34" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>42</v>
@@ -2911,7 +2855,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="13"/>
       <c r="C2" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>43</v>
@@ -2920,19 +2864,19 @@
         <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>33</v>
@@ -2950,15 +2894,15 @@
         <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>33</v>
@@ -2976,15 +2920,15 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>33</v>
@@ -3002,17 +2946,17 @@
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>33</v>
@@ -3030,13 +2974,13 @@
         <v>23</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>33</v>
@@ -3054,18 +2998,18 @@
         <v>23</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>33</v>
@@ -3083,17 +3027,17 @@
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3101,7 +3045,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>43</v>
@@ -3113,13 +3057,13 @@
         <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
@@ -3127,7 +3071,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>28</v>
@@ -3139,10 +3083,10 @@
         <v>23</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -3150,7 +3094,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>43</v>
@@ -3162,21 +3106,21 @@
         <v>23</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>43</v>
@@ -3188,7 +3132,10 @@
         <v>23</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>179</v>
+        <v>173</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -3208,16 +3155,13 @@
         <v>23</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>33</v>
       </c>
@@ -3228,27 +3172,27 @@
         <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>43</v>
@@ -3259,25 +3203,25 @@
       <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>163</v>
+      <c r="G15" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>43</v>
@@ -3289,15 +3233,17 @@
         <v>23</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="17"/>
+        <v>186</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="J16" s="17"/>
     </row>
-    <row r="17" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="172.8" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>14</v>
       </c>
@@ -3305,22 +3251,22 @@
         <v>43</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
@@ -3328,21 +3274,21 @@
         <v>43</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>50</v>
@@ -3351,21 +3297,21 @@
         <v>43</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>43</v>
@@ -3377,13 +3323,13 @@
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>157</v>
+        <v>191</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.2">
@@ -3403,17 +3349,17 @@
         <v>23</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>43</v>
@@ -3425,10 +3371,13 @@
         <v>23</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>195</v>
+        <v>187</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -3442,18 +3391,18 @@
         <v>12</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>28</v>
@@ -3462,33 +3411,36 @@
         <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="144" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="23" t="s">
-        <v>197</v>
+      <c r="G25" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -3499,36 +3451,36 @@
         <v>28</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -3542,18 +3494,18 @@
         <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B32" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H32" s="24"/>
     </row>
@@ -3568,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D25"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3588,14 +3540,14 @@
   <sheetData>
     <row r="2" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
@@ -3701,10 +3653,10 @@
         <v>23</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -3757,7 +3709,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7"/>
     </row>
@@ -3778,7 +3730,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>49</v>
@@ -3792,7 +3744,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>12</v>
@@ -3801,14 +3753,14 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
@@ -3818,20 +3770,20 @@
         <v>23</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
@@ -3841,20 +3793,20 @@
         <v>23</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>28</v>
@@ -3866,14 +3818,14 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>28</v>
@@ -3885,14 +3837,14 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -3900,18 +3852,18 @@
         <v>23</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -3934,18 +3886,18 @@
         <v>23</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -3953,7 +3905,7 @@
         <v>23</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
@@ -3962,10 +3914,10 @@
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>13</v>
@@ -3974,18 +3926,18 @@
         <v>23</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3998,10 +3950,10 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>13</v>
@@ -4010,14 +3962,14 @@
       <c r="F21" s="7"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
@@ -4027,7 +3979,7 @@
         <v>23</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
@@ -4048,14 +4000,14 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>28</v>
@@ -4067,7 +4019,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="7"/>
     </row>
@@ -4086,10 +4038,10 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4105,7 +4057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:B26"/>
     </sheetView>
   </sheetViews>
@@ -4125,17 +4077,17 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4158,7 +4110,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
@@ -4264,10 +4216,10 @@
         <v>23</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="6" t="s">
@@ -4322,7 +4274,7 @@
         <v>48</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -4343,7 +4295,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>49</v>
@@ -4358,7 +4310,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -4370,7 +4322,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
@@ -4381,7 +4333,7 @@
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>28</v>
@@ -4393,7 +4345,7 @@
         <v>23</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
@@ -4402,7 +4354,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>43</v>
@@ -4414,11 +4366,11 @@
         <v>23</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -4427,7 +4379,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>43</v>
@@ -4439,7 +4391,7 @@
         <v>23</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
@@ -4480,22 +4432,22 @@
         <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="I18" s="6"/>
     </row>
@@ -4507,7 +4459,7 @@
         <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
@@ -4516,13 +4468,13 @@
         <v>23</v>
       </c>
       <c r="F19" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -4549,7 +4501,7 @@
         <v>56</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="6"/>
     </row>
@@ -4558,7 +4510,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>43</v>
@@ -4570,11 +4522,11 @@
         <v>23</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -4583,7 +4535,7 @@
         <v>33</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>43</v>
@@ -4599,7 +4551,7 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I22" s="6"/>
     </row>
@@ -4608,10 +4560,10 @@
         <v>33</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="17"/>
@@ -4630,7 +4582,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
@@ -4643,13 +4595,13 @@
         <v>33</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -4697,7 +4649,7 @@
         <v>11</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -4802,14 +4754,14 @@
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4817,7 +4769,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>43</v>
@@ -4829,7 +4781,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -4839,7 +4791,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -4851,7 +4803,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -4861,7 +4813,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>43</v>
@@ -4873,10 +4825,10 @@
         <v>23</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="7"/>
     </row>
@@ -4885,7 +4837,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -4897,7 +4849,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -4952,7 +4904,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="7"/>
     </row>
@@ -4961,13 +4913,13 @@
         <v>33</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I12" s="7"/>
     </row>
@@ -4976,7 +4928,7 @@
         <v>33</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>43</v>
@@ -4992,7 +4944,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I13" s="7"/>
     </row>
@@ -5001,10 +4953,10 @@
         <v>33</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="17"/>
@@ -5027,13 +4979,13 @@
         <v>23</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -5048,7 +5000,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5069,18 +5021,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -5257,6 +5197,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F724DB8-FDC9-4526-B07B-463F4D815618}">
   <ds:schemaRefs>
@@ -5266,16 +5218,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF3E1917-8142-40B1-B65D-035A525D2E69}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5292,4 +5234,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CEB43D0-560F-48CD-B064-47F998E79E6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>